--- a/biology/Botanique/Byrsonima/Byrsonima.xlsx
+++ b/biology/Botanique/Byrsonima/Byrsonima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Byrsonima est un genre de plantes à fleurs de la famille des Malpighiaceae (familles de l'acérola), comptant environ 157-180 espèces, et dont l'espèce type est Malpighia spicata Cav.. Ce sont des arbres, arbustes ou arbrisseaux néotropicaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Byrsonima regroupe des arbres, arbustes ou sous-arbrisseaux. 
 Les feuilles dépourvues de glandes, comportent des stipules intra- et épipétiolaires, distinctes ou partiellement à complètement connées, persistantes sur le pétiole chez la plupart des espèces. 
@@ -525,7 +539,7 @@
 On compte 10 étamines avec des anthères ± semblables. 
 L'ovaire comporte 3 carpelles complètement connés, à 3 loges, qui sont toutes loges fertiles (la partie antérieure est stérile chez certaines espèces), et 3 styles minces et subulés, les stigmates minuscules et terminaux ou légèrement internes. 
 Le fruit est une drupe, à chair fine, de couleur verte, virant à maturité au jaune, orange, rouge, violet, bleu ou bleu-noir.
-Le noyau à une paroi dure, et contient 3 loges[2].
+Le noyau à une paroi dure, et contient 3 loges.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Byrsonima depuis le Mexique, en passant par l'Amérique centrale, les Antilles, jusqu'à l'Amérique du Sud (tous les pays sauf le Chili, l'Argentine et l'Uruguay)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Byrsonima depuis le Mexique, en passant par l'Amérique centrale, les Antilles, jusqu'à l'Amérique du Sud (tous les pays sauf le Chili, l'Argentine et l'Uruguay).
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (22 février 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (22 février 2022) :
 Byrsonima aerugo Sagot
 Byrsonima affinis W.R.Anderson
 Byrsonima altissima DC.
@@ -745,7 +763,7 @@
 Byrsonima wrightiana Nied.
 Byrsonima wurdackii W.R.Anderson
 Byrsonima yaroana Alain
-Selon GBIF       (22 février 2022)[1] :
+Selon GBIF       (22 février 2022) :
 Byrsonima aerugo Sagot
 Byrsonima affinis W.R.Anderson
 Byrsonima altissima (Aubl.) DC.
